--- a/biology/Botanique/Juncaceae/Juncaceae.xlsx
+++ b/biology/Botanique/Juncaceae/Juncaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des joncacées ou juncacées regroupe des plantes monocotylédones. Elle comprend environ 400 espèces réparties en 6-9 genres.
 Ce sont des plantes herbacées ou des arbustes (rarement) des lieux humides, des zones froides à tempérées (jusqu'aux zones montagneuses tropicales). Dans cette famille on trouve les joncs genre Juncus L. à feuilles généralement cylindriques et les luzules genre Luzula DC. à feuilles planes.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Juncus de junc nom latin de ces plantes, peut-être dérivé du latin jungere  (joindre) : les Joncs étant utilisés comme liens[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Juncus de junc nom latin de ces plantes, peut-être dérivé du latin jungere  (joindre) : les Joncs étant utilisés comme liens.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[2] cette famille était dans l'ordres des Juncales.
-La classification phylogénétique APG II (2003)[3] situe l'espèce Prionium serratum dans les Thurniaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981) cette famille était dans l'ordres des Juncales.
+La classification phylogénétique APG II (2003) situe l'espèce Prionium serratum dans les Thurniaceae.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (20 avr. 2010)[4] et NCBI  (20 avr. 2010)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (20 avr. 2010) et NCBI  (20 avr. 2010) :
 genre Distichia  Nees &amp; Meyen (1843)
 genre Juncus  L. (1753)
 genre Luzula  DC. (1805)
@@ -585,14 +603,14 @@
 genre Oxychloe  Phil. (1860)
 genre Patosia  Buchenau (1890) (considéré inclus dans Oxychloe par Angiosperm Phylogeny Website)
 genre Rostkovia  Desv. (1809)
-Selon Angiosperm Phylogeny Website                        (19 mai 2010)[6] :
+Selon Angiosperm Phylogeny Website                        (19 mai 2010) :
 genre Distichia Nees &amp; Meyen
 genre Juncus L.
 genre Luzula DC.
 genre Marsippospermum Desv.
 genre Oxychloe Phil.
 genre Rostkovia Desv.
-Selon DELTA Angio           (20 avr. 2010)[7] :
+Selon DELTA Angio           (20 avr. 2010) :
 genre Andesia  (considéré inclus dans Oxychloe par Angiosperm Phylogeny Website)
 genre Distichia
 genre Juncus
@@ -601,7 +619,7 @@
 genre Oxychloe
 genre Prionium
 genre Rostkovia
-Selon ITIS      (20 avr. 2010)[8] :
+Selon ITIS      (20 avr. 2010) :
 genre Juncus  L.
 genre Luzula  DC.</t>
         </is>
